--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1069404.348988379</v>
+        <v>1074896.65595116</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977808</v>
+        <v>7966425.477977805</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +670,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>122.6603790997931</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -871,10 +873,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>114.7398479781407</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.64519750375064</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>32.6155053630902</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>40.44832725516201</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>18.31783254898668</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,19 +1375,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>66.68447052885355</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>304.9220910887695</v>
       </c>
     </row>
     <row r="12">
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>130.3553607729761</v>
+        <v>167.9683453503095</v>
       </c>
     </row>
     <row r="15">
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,16 +1852,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>233.2385090293387</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>70.65583204962846</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>89.01144831000725</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>157.227688909249</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,22 +2086,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>264.535022796535</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>95.52949821974474</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>11.61260049965443</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>269.1458746145468</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>287.9500669450311</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.5633434999038</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>53.558706426582</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.13483154529241</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>276.9786965066188</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>87.95308749070786</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>70.55710811052717</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2792,19 +2794,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>46.89708905407537</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>91.85378139610359</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -2956,13 +2958,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>26.64757422272712</v>
       </c>
       <c r="F31" t="n">
-        <v>135.3523815274316</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>343.1925471884147</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3044,10 +3046,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>239.6502950934064</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>53.03638470914613</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>165.6158245190444</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3274,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>96.28476329087884</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>249.8112814375703</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>108.4701098559616</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3442,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.6483185807186</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3508,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>197.6217996051351</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>127.7349619690956</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3752,13 +3754,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>256.7115579699416</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>113.3924062410852</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3898,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>41.14741695800816</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>129.6162657041436</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>362.0199558049727</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>89.88464088382982</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1980.565088813479</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C2" t="n">
-        <v>1587.389587316409</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D2" t="n">
-        <v>1201.948458533077</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E2" t="n">
-        <v>799.3649336496217</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F2" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G2" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H2" t="n">
         <v>62.11912770411553</v>
@@ -4352,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X2" t="n">
-        <v>2777.550543604275</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y2" t="n">
-        <v>2381.059834524876</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>900.7358324498676</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>900.7358324498676</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L3" t="n">
-        <v>900.7358324498676</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M3" t="n">
-        <v>1293.671671132949</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N3" t="n">
-        <v>1949.449642343508</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O3" t="n">
-        <v>2465.969924934489</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P3" t="n">
-        <v>2871.591293650886</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4519,16 +4521,16 @@
         <v>401.1300252290284</v>
       </c>
       <c r="U4" t="n">
-        <v>285.2311888874722</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V4" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W4" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
         <v>62.11912770411553</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.700500902976</v>
+        <v>950.6597514544419</v>
       </c>
       <c r="C5" t="n">
-        <v>1601.700500902976</v>
+        <v>557.4842499573724</v>
       </c>
       <c r="D5" t="n">
-        <v>1216.259372119644</v>
+        <v>557.4842499573724</v>
       </c>
       <c r="E5" t="n">
-        <v>1216.259372119644</v>
+        <v>557.4842499573724</v>
       </c>
       <c r="F5" t="n">
-        <v>799.3649336496217</v>
+        <v>557.4842499573724</v>
       </c>
       <c r="G5" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4601,16 +4603,16 @@
         <v>2850.203655640375</v>
       </c>
       <c r="V5" t="n">
-        <v>2850.203655640375</v>
+        <v>2508.096846343894</v>
       </c>
       <c r="W5" t="n">
-        <v>2479.204620608662</v>
+        <v>2137.097811312181</v>
       </c>
       <c r="X5" t="n">
-        <v>2089.752015541719</v>
+        <v>1747.645206245238</v>
       </c>
       <c r="Y5" t="n">
-        <v>1693.26130646232</v>
+        <v>1351.154497165839</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4646,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K6" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L6" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M6" t="n">
-        <v>1286.571845448837</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O6" t="n">
         <v>1974.833293963354</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4747,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1303.155925325562</v>
+        <v>1344.012821542897</v>
       </c>
       <c r="C8" t="n">
-        <v>909.9804238284923</v>
+        <v>950.8373200458277</v>
       </c>
       <c r="D8" t="n">
-        <v>524.5392950451601</v>
+        <v>565.3961912624954</v>
       </c>
       <c r="E8" t="n">
-        <v>524.5392950451601</v>
+        <v>565.3961912624954</v>
       </c>
       <c r="F8" t="n">
-        <v>524.5392950451601</v>
+        <v>565.3961912624954</v>
       </c>
       <c r="G8" t="n">
         <v>524.5392950451601</v>
@@ -4826,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U8" t="n">
-        <v>2850.203655640375</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V8" t="n">
-        <v>2508.096846343894</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W8" t="n">
-        <v>2489.593985183301</v>
+        <v>2530.450881400636</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.141380116358</v>
+        <v>2140.998276333693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1703.650671036959</v>
+        <v>1744.507567254294</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L9" t="n">
-        <v>580.3847592515303</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O9" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P9" t="n">
         <v>2380.454662679751</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D10" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E10" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F10" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G10" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H10" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I10" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4984,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>522.652680240431</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C11" t="n">
-        <v>129.4771787433615</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D11" t="n">
-        <v>62.11912770411553</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E11" t="n">
-        <v>62.11912770411553</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F11" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5063,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.09074009817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X11" t="n">
-        <v>1319.638135031227</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y11" t="n">
-        <v>923.1474259518279</v>
+        <v>2797.954272994898</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1634.317313094942</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5221,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S13" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5300,25 +5302,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y14" t="n">
         <v>2936.291389902433</v>
@@ -5358,22 +5360,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5458,19 +5460,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S16" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T16" t="n">
-        <v>896.8676667102127</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U16" t="n">
-        <v>611.4288749521137</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V16" t="n">
-        <v>345.4495297729379</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W16" t="n">
         <v>62.11912770411553</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2308.970930414981</v>
+        <v>840.7357579845172</v>
       </c>
       <c r="C17" t="n">
-        <v>1915.795428917911</v>
+        <v>447.5602564874478</v>
       </c>
       <c r="D17" t="n">
-        <v>1530.354300134579</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E17" t="n">
-        <v>1127.770775251123</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F17" t="n">
-        <v>710.876336781101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G17" t="n">
-        <v>297.7135812691042</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
         <v>62.11912770411553</v>
@@ -5537,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.956385205776</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W17" t="n">
-        <v>3105.956385205776</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X17" t="n">
-        <v>3105.956385205776</v>
+        <v>1637.721212775313</v>
       </c>
       <c r="Y17" t="n">
-        <v>2709.465676126377</v>
+        <v>1241.230503695914</v>
       </c>
     </row>
     <row r="18">
@@ -5604,13 +5606,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411553</v>
+        <v>337.9667638673033</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411553</v>
+        <v>337.9667638673033</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411553</v>
+        <v>337.9667638673033</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411553</v>
+        <v>182.4079517265058</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411553</v>
+        <v>182.4079517265058</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411553</v>
+        <v>182.4079517265058</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411553</v>
+        <v>182.4079517265058</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J19" t="n">
         <v>62.11912770411553</v>
@@ -5695,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S19" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T19" t="n">
-        <v>804.7503028625881</v>
+        <v>603.946109046479</v>
       </c>
       <c r="U19" t="n">
-        <v>519.3115111044891</v>
+        <v>603.946109046479</v>
       </c>
       <c r="V19" t="n">
-        <v>519.3115111044891</v>
+        <v>337.9667638673033</v>
       </c>
       <c r="W19" t="n">
-        <v>519.3115111044891</v>
+        <v>337.9667638673033</v>
       </c>
       <c r="X19" t="n">
-        <v>285.2311888874722</v>
+        <v>337.9667638673033</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411553</v>
+        <v>337.9667638673033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1510.526376601847</v>
+        <v>1292.766560750923</v>
       </c>
       <c r="C20" t="n">
-        <v>1117.350875104777</v>
+        <v>899.5910592538539</v>
       </c>
       <c r="D20" t="n">
-        <v>731.9097463214448</v>
+        <v>899.5910592538539</v>
       </c>
       <c r="E20" t="n">
-        <v>329.3262214379893</v>
+        <v>899.5910592538539</v>
       </c>
       <c r="F20" t="n">
-        <v>329.3262214379893</v>
+        <v>482.6966207838317</v>
       </c>
       <c r="G20" t="n">
-        <v>329.3262214379893</v>
+        <v>482.6966207838317</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>158.6135703503223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>3067.963471491298</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V20" t="n">
-        <v>3067.963471491298</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="W20" t="n">
-        <v>2696.964436459586</v>
+        <v>2479.204620608662</v>
       </c>
       <c r="X20" t="n">
-        <v>2307.511831392642</v>
+        <v>2089.752015541719</v>
       </c>
       <c r="Y20" t="n">
-        <v>1911.021122313243</v>
+        <v>1693.26130646232</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5834,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>84.60386270860994</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>568.1699486069232</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.11912770411553</v>
+        <v>2697.636305331118</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411553</v>
+        <v>2527.431187397107</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411553</v>
+        <v>2371.798074299622</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411553</v>
+        <v>2216.239262158824</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U22" t="n">
-        <v>678.1273584875689</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V22" t="n">
-        <v>412.1480133083932</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W22" t="n">
-        <v>128.8176112395708</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X22" t="n">
-        <v>62.11912770411553</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.11912770411553</v>
+        <v>2882.84432402242</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>746.1532826810144</v>
+        <v>727.1591490138585</v>
       </c>
       <c r="C23" t="n">
-        <v>352.977781183945</v>
+        <v>333.9836475167891</v>
       </c>
       <c r="D23" t="n">
-        <v>352.977781183945</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E23" t="n">
-        <v>352.977781183945</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F23" t="n">
-        <v>352.977781183945</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G23" t="n">
-        <v>352.977781183945</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
         <v>62.11912770411553</v>
@@ -6011,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2901.449916432349</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U23" t="n">
-        <v>2645.697186866948</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V23" t="n">
-        <v>2303.590377570466</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W23" t="n">
-        <v>1932.591342538753</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X23" t="n">
-        <v>1543.13873747181</v>
+        <v>1524.144603804654</v>
       </c>
       <c r="Y23" t="n">
-        <v>1146.648028392411</v>
+        <v>1127.653894725255</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6077,7 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
         <v>1458.313011372373</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>381.0703742794417</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="C25" t="n">
-        <v>381.0703742794417</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="D25" t="n">
-        <v>381.0703742794417</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="E25" t="n">
-        <v>381.0703742794417</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F25" t="n">
-        <v>381.0703742794417</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G25" t="n">
         <v>381.0703742794417</v>
@@ -6181,16 +6183,16 @@
         <v>760.7500664282172</v>
       </c>
       <c r="V25" t="n">
-        <v>494.7707212490415</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="W25" t="n">
-        <v>494.7707212490415</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="X25" t="n">
-        <v>494.7707212490415</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="Y25" t="n">
-        <v>494.7707212490415</v>
+        <v>760.7500664282172</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>881.5970910575932</v>
+        <v>840.7357579845172</v>
       </c>
       <c r="C26" t="n">
-        <v>881.5970910575932</v>
+        <v>447.5602564874478</v>
       </c>
       <c r="D26" t="n">
-        <v>881.5970910575932</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E26" t="n">
-        <v>479.0135661741377</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6257,19 +6259,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U26" t="n">
-        <v>2422.196584426364</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V26" t="n">
-        <v>2080.089775129883</v>
+        <v>2398.172852873969</v>
       </c>
       <c r="W26" t="n">
-        <v>1709.09074009817</v>
+        <v>2027.173817842256</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.638135031227</v>
+        <v>1637.721212775313</v>
       </c>
       <c r="Y26" t="n">
-        <v>923.1474259518279</v>
+        <v>1241.230503695914</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6314,16 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>1084.690231197904</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N27" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O27" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P27" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.2832935226386</v>
+        <v>2463.555983114101</v>
       </c>
       <c r="C28" t="n">
-        <v>375.0781755886278</v>
+        <v>2293.35086518009</v>
       </c>
       <c r="D28" t="n">
-        <v>219.4450624911426</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E28" t="n">
-        <v>219.4450624911426</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F28" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G28" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H28" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J28" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K28" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L28" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M28" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N28" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O28" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P28" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q28" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R28" t="n">
-        <v>839.6651608782449</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S28" t="n">
-        <v>768.3953547059953</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T28" t="n">
-        <v>768.3953547059953</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U28" t="n">
-        <v>768.3953547059953</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V28" t="n">
-        <v>768.3953547059953</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W28" t="n">
-        <v>768.3953547059953</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X28" t="n">
-        <v>768.3953547059953</v>
+        <v>2871.876062988759</v>
       </c>
       <c r="Y28" t="n">
-        <v>545.2832935226386</v>
+        <v>2648.764001805403</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>857.8781540846405</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C29" t="n">
-        <v>464.702652587571</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="D29" t="n">
-        <v>464.702652587571</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="E29" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
         <v>62.11912770411553</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>3013.174787835975</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2757.422058270573</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2415.315248974092</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>2044.316213942379</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X29" t="n">
-        <v>1654.863608875436</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y29" t="n">
-        <v>1258.372899796037</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N30" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O30" t="n">
-        <v>1740.468202408463</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="P30" t="n">
-        <v>2146.089571124861</v>
+        <v>2184.144245539707</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2822.625983136954</v>
+        <v>2882.84432402242</v>
       </c>
       <c r="C31" t="n">
-        <v>2652.420865202943</v>
+        <v>2712.639206088409</v>
       </c>
       <c r="D31" t="n">
-        <v>2496.787752105457</v>
+        <v>2557.006092990924</v>
       </c>
       <c r="E31" t="n">
-        <v>2341.22893996466</v>
+        <v>2530.089351351805</v>
       </c>
       <c r="F31" t="n">
-        <v>2204.509362664224</v>
+        <v>2372.763416564778</v>
       </c>
       <c r="G31" t="n">
         <v>2204.509362664224</v>
@@ -6658,13 +6660,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W31" t="n">
-        <v>2822.625983136954</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X31" t="n">
-        <v>2822.625983136954</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y31" t="n">
-        <v>2822.625983136954</v>
+        <v>2882.84432402242</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.447481994847</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C32" t="n">
-        <v>1922.271980497777</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D32" t="n">
-        <v>1536.830851714445</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E32" t="n">
-        <v>1134.24732683099</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F32" t="n">
-        <v>717.3528883609673</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G32" t="n">
-        <v>304.1901328489704</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6725,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U32" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V32" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W32" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X32" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765193</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L33" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M33" t="n">
-        <v>1286.571845448837</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>387.9573587356116</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C34" t="n">
-        <v>217.7522408016008</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N34" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O34" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P34" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R34" t="n">
-        <v>963.5661502456679</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S34" t="n">
-        <v>963.5661502456679</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="T34" t="n">
-        <v>963.5661502456679</v>
+        <v>2543.520260189137</v>
       </c>
       <c r="U34" t="n">
-        <v>963.5661502456679</v>
+        <v>2258.081468431038</v>
       </c>
       <c r="V34" t="n">
-        <v>963.5661502456679</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="W34" t="n">
-        <v>963.5661502456679</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="X34" t="n">
-        <v>796.2774386102695</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y34" t="n">
-        <v>573.1653774269129</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2211.713593757527</v>
+        <v>1257.630196454539</v>
       </c>
       <c r="C35" t="n">
-        <v>1818.538092260458</v>
+        <v>864.45469495747</v>
       </c>
       <c r="D35" t="n">
-        <v>1433.096963477125</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="E35" t="n">
-        <v>1030.51343859367</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F35" t="n">
-        <v>613.6190001236475</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>3008.699048548323</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T35" t="n">
-        <v>3008.699048548323</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U35" t="n">
-        <v>3008.699048548323</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V35" t="n">
-        <v>3008.699048548323</v>
+        <v>2425.614686277048</v>
       </c>
       <c r="W35" t="n">
-        <v>3008.699048548323</v>
+        <v>2054.615651245335</v>
       </c>
       <c r="X35" t="n">
-        <v>3008.699048548323</v>
+        <v>2054.615651245335</v>
       </c>
       <c r="Y35" t="n">
-        <v>2612.208339468924</v>
+        <v>1658.124942165936</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>787.6208502301403</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L36" t="n">
-        <v>1271.186936128453</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M36" t="n">
-        <v>1898.958585755135</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N36" t="n">
-        <v>2183.814733898398</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>2700.335016489379</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
         <v>62.11912770411553</v>
@@ -7123,22 +7125,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>442.408306655803</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>442.408306655803</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W37" t="n">
-        <v>442.408306655803</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X37" t="n">
-        <v>442.408306655803</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.5918232409357</v>
+        <v>171.6848952353899</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1006.794501620717</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C38" t="n">
-        <v>613.6190001236475</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D38" t="n">
-        <v>613.6190001236475</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>613.6190001236475</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>613.6190001236475</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,22 +7204,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>2906.33840580665</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>2906.33840580665</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2564.231596510168</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W38" t="n">
-        <v>2193.232561478456</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X38" t="n">
-        <v>1803.779956411513</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y38" t="n">
-        <v>1407.289247332114</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1286.571845448837</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N39" t="n">
-        <v>1942.349816659396</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2271.207846199679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>2271.207846199679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>2271.207846199679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>3105.956385205776</v>
+        <v>834.5409361354704</v>
       </c>
       <c r="U40" t="n">
-        <v>2820.517593447677</v>
+        <v>834.5409361354704</v>
       </c>
       <c r="V40" t="n">
-        <v>2554.538248268502</v>
+        <v>568.5615909562946</v>
       </c>
       <c r="W40" t="n">
-        <v>2271.207846199679</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="X40" t="n">
-        <v>2271.207846199679</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y40" t="n">
-        <v>2271.207846199679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2511.997311365405</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C41" t="n">
-        <v>2118.821809868336</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D41" t="n">
-        <v>1733.380681085004</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E41" t="n">
-        <v>1330.797156201548</v>
+        <v>738.3181701841797</v>
       </c>
       <c r="F41" t="n">
-        <v>913.902717731526</v>
+        <v>321.4237317141575</v>
       </c>
       <c r="G41" t="n">
-        <v>500.7399622195291</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>176.6569117860197</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X41" t="n">
-        <v>2511.997311365405</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y41" t="n">
-        <v>2511.997311365405</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>698.8910416299798</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
         <v>62.11912770411553</v>
@@ -7597,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U43" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V43" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1888.105534823911</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="C44" t="n">
-        <v>1888.105534823911</v>
+        <v>813.2369795227737</v>
       </c>
       <c r="D44" t="n">
-        <v>1757.180013910635</v>
+        <v>427.7958507394414</v>
       </c>
       <c r="E44" t="n">
-        <v>1354.596489027179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F44" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G44" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7678,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2626.703053199792</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2284.59624390331</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W44" t="n">
-        <v>2284.59624390331</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X44" t="n">
-        <v>2284.59624390331</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y44" t="n">
-        <v>1888.105534823911</v>
+        <v>1606.90722673124</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7733,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>175.2341099238429</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>803.0057595505241</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.783730761083</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1975.304013352064</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>321.165748153993</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
         <v>62.11912770411553</v>
@@ -7834,22 +7836,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U46" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V46" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W46" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.3737668452943</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>489.2920096079796</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8076,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8292,22 +8294,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>550.6002160777358</v>
       </c>
       <c r="N6" t="n">
-        <v>258.8480380294549</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8529,16 +8531,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>237.5738335035115</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8547,7 +8549,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8708,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>306.543171528089</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>436.6430951196083</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,13 +9008,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>201.8486954419035</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9024,7 +9026,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9252,16 +9254,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O18" t="n">
-        <v>412.7428484698906</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,19 +9482,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>112.3087888732267</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>491.4748860273814</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9723,10 +9725,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N24" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,19 +9962,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>636.8366347720143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>258.8480380294549</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>262.1075997502998</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>373.1055958271601</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10829,7 +10831,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10899,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>301.8549375253374</v>
       </c>
       <c r="O39" t="n">
-        <v>125.4991521252098</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,25 +11141,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11315,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11379,10 +11381,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>237.5738335035115</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11391,7 +11393,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.3264449482919</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22556,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -22610,7 +22612,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>262.8976999164806</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22759,10 +22761,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>167.8445558623774</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22771,7 +22773,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>305.8446007505323</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>376.4156225937866</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22841,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23033,7 +23035,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>368.5828007017149</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23066,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>348.9712121324087</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23182,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>314.9022469666454</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>87.60371089983539</v>
       </c>
     </row>
     <row r="12">
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
@@ -23561,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.1704412156288</v>
+        <v>224.5574566382954</v>
       </c>
     </row>
     <row r="15">
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23738,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>87.60371089983551</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>314.9022469666453</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23908,10 +23910,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
-        <v>131.7634811092929</v>
+        <v>42.75203279928563</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>76.13417240419921</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23972,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3071971326392</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>41.42424751871508</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24023,7 +24025,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>144.1400749395023</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24181,19 +24183,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>165.708020294746</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>112.4408428809522</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -24221,7 +24223,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>32.89215298414314</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.79259500448451</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24370,13 +24372,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>100.4445175928075</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>355.3549667089905</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24497,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>61.70704469689798</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>66.12369447580254</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>130.230814868749</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
@@ -24664,7 +24666,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24680,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>342.3466574280233</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>129.4118150200739</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>127.3556497966624</v>
       </c>
       <c r="F31" t="n">
-        <v>20.40029391172519</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -24898,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>53.29725106586824</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>81.19192483576788</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182379</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>66.12369447580232</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.5636562174811</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>88.87445976594648</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>74.88582864842662</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25330,10 +25332,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.232621990804489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,19 +25444,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>23.64379681104236</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>87.97172531928848</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -25600,10 +25602,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>105.6268993443526</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>23.56133949737465</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,19 +25788,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>127.3556497966625</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25837,22 +25839,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>251.9704517913553</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.53773382964823</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>78.61842587084085</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26035,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26074,22 +26076,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>661557.9095155576</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>661557.9095155579</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>661557.9095155579</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>661557.9095155579</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>661557.9095155578</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661557.9095155578</v>
+        <v>661557.9095155579</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>661557.9095155579</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661557.9095155578</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661557.9095155579</v>
+        <v>661557.9095155578</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>661557.9095155578</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="16">
@@ -26317,19 +26319,19 @@
         <v>229000.8148323084</v>
       </c>
       <c r="D2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="E2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="F2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323083</v>
       </c>
       <c r="G2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="H2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="I2" t="n">
         <v>229000.8148323084</v>
@@ -26341,7 +26343,7 @@
         <v>229000.8148323084</v>
       </c>
       <c r="L2" t="n">
-        <v>229000.8148323086</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="M2" t="n">
         <v>229000.8148323084</v>
@@ -26418,13 +26420,13 @@
         <v>548.8206074562066</v>
       </c>
       <c r="C4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="D4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="E4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="F4" t="n">
         <v>548.8206074562066</v>
@@ -26433,19 +26435,19 @@
         <v>548.8206074562066</v>
       </c>
       <c r="H4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="I4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="J4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="K4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562067</v>
       </c>
       <c r="L4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="M4" t="n">
         <v>548.8206074562066</v>
@@ -26525,31 +26527,31 @@
         <v>147613.8571697244</v>
       </c>
       <c r="D6" t="n">
-        <v>147613.8571697245</v>
+        <v>147613.8571697244</v>
       </c>
       <c r="E6" t="n">
-        <v>181241.4571697244</v>
+        <v>181241.4571697245</v>
       </c>
       <c r="F6" t="n">
-        <v>181241.4571697245</v>
+        <v>181241.4571697243</v>
       </c>
       <c r="G6" t="n">
         <v>181241.4571697244</v>
       </c>
       <c r="H6" t="n">
-        <v>181241.4571697244</v>
+        <v>181241.4571697245</v>
       </c>
       <c r="I6" t="n">
         <v>181241.4571697244</v>
       </c>
       <c r="J6" t="n">
-        <v>-21922.25594297064</v>
+        <v>-21922.2559429706</v>
       </c>
       <c r="K6" t="n">
+        <v>181241.4571697245</v>
+      </c>
+      <c r="L6" t="n">
         <v>181241.4571697244</v>
-      </c>
-      <c r="L6" t="n">
-        <v>181241.4571697246</v>
       </c>
       <c r="M6" t="n">
         <v>181241.4571697244</v>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>396.9048875586677</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34796,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>458.2130940284239</v>
       </c>
       <c r="N6" t="n">
-        <v>173.4759251752883</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35185,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35267,7 +35269,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35428,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>343.9555362307195</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>109.4615733925916</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,16 +35974,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O18" t="n">
-        <v>320.0552895810017</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>22.71185353989334</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36443,10 +36445,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N24" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36680,19 +36682,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>544.4495127227025</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>173.4759251752883</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>287.7334829729934</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="O39" t="n">
-        <v>32.81159323632088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38111,7 +38113,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.2430801289772</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1074896.65595116</v>
+        <v>1070362.832781662</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977805</v>
+        <v>7966425.477977806</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>54.25015388424845</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>233.2385090293388</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>62.29890147768651</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>32.6155053630902</v>
+        <v>287.9802029231674</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>354.3141853043665</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>40.44832725516201</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>21.76352396253272</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -1387,7 +1387,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>28.60086709779514</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>304.9220910887695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>240.0345993450629</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1627,7 +1627,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>54.70041719277038</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>70.65583204962846</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>89.01144831000725</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>95.52949821974474</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>195.6255244520054</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>11.61260049965443</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>269.1458746145468</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>53.558706426582</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>276.9786965066188</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>87.95308749070786</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>46.89708905407537</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>220.9194904647426</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>164.0116202804579</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26.64757422272712</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.1925471884147</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,13 +3043,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>267.1269915000908</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -3246,10 +3246,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>53.03638470914613</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>249.8112814375703</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>240.20623200167</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.4701098559616</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>127.7349619690956</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>147.8279795613425</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>256.7115579699416</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>147.8279795613425</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -3982,22 +3982,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>54.7004171927703</v>
       </c>
       <c r="E44" t="n">
-        <v>362.0199558049727</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>115.2540412271704</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2073.376476849992</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C2" t="n">
-        <v>1680.200975352922</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D2" t="n">
-        <v>1294.75984656959</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E2" t="n">
-        <v>892.1763216861347</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F2" t="n">
-        <v>475.2818832161124</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G2" t="n">
         <v>62.11912770411553</v>
@@ -4327,7 +4327,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U2" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="V2" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="W2" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X2" t="n">
-        <v>2870.361931640788</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y2" t="n">
-        <v>2473.871222561389</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L3" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M3" t="n">
-        <v>865.4243596646552</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N3" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O3" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P3" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q3" t="n">
         <v>2380.454662679751</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.11912770411553</v>
+        <v>400.5782995386808</v>
       </c>
       <c r="C4" t="n">
-        <v>62.11912770411553</v>
+        <v>230.37318160467</v>
       </c>
       <c r="D4" t="n">
-        <v>62.11912770411553</v>
+        <v>230.37318160467</v>
       </c>
       <c r="E4" t="n">
-        <v>62.11912770411553</v>
+        <v>230.37318160467</v>
       </c>
       <c r="F4" t="n">
-        <v>62.11912770411553</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G4" t="n">
         <v>62.11912770411553</v>
@@ -4512,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>62.11912770411553</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W4" t="n">
-        <v>62.11912770411553</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="X4" t="n">
-        <v>62.11912770411553</v>
+        <v>463.5064828494752</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.11912770411553</v>
+        <v>400.5782995386808</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>950.6597514544419</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C5" t="n">
-        <v>557.4842499573724</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D5" t="n">
-        <v>557.4842499573724</v>
+        <v>769.902660035923</v>
       </c>
       <c r="E5" t="n">
-        <v>557.4842499573724</v>
+        <v>769.902660035923</v>
       </c>
       <c r="F5" t="n">
-        <v>557.4842499573724</v>
+        <v>353.0082215659007</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4600,19 +4600,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U5" t="n">
-        <v>2850.203655640375</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V5" t="n">
-        <v>2508.096846343894</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W5" t="n">
-        <v>2137.097811312181</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X5" t="n">
-        <v>1747.645206245238</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1351.154497165839</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="6">
@@ -4655,13 +4655,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M6" t="n">
-        <v>1319.055322752795</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N6" t="n">
-        <v>1974.833293963354</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4755,22 +4755,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1344.012821542897</v>
+        <v>1235.758524568625</v>
       </c>
       <c r="C8" t="n">
-        <v>950.8373200458277</v>
+        <v>877.865408099568</v>
       </c>
       <c r="D8" t="n">
-        <v>565.3961912624954</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E8" t="n">
-        <v>565.3961912624954</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F8" t="n">
-        <v>565.3961912624954</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4834,22 +4834,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2901.449916432349</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2901.449916432349</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>2901.449916432349</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W8" t="n">
-        <v>2530.450881400636</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X8" t="n">
-        <v>2140.998276333693</v>
+        <v>2032.743979359421</v>
       </c>
       <c r="Y8" t="n">
-        <v>1744.507567254294</v>
+        <v>1636.253270280022</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>658.8001958221562</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M9" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4989,25 +4989,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>738.7667088903054</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>738.7667088903054</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>455.436306821483</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>455.436306821483</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>232.3242456381263</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.459527283501</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="C11" t="n">
-        <v>2004.284025786432</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="D11" t="n">
-        <v>1618.8428970031</v>
+        <v>1323.649611314838</v>
       </c>
       <c r="E11" t="n">
-        <v>1216.259372119644</v>
+        <v>921.0660864313822</v>
       </c>
       <c r="F11" t="n">
-        <v>799.3649336496217</v>
+        <v>504.17164796136</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2021781376249</v>
+        <v>91.00889244936315</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W11" t="n">
-        <v>3105.956385205776</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X11" t="n">
-        <v>3105.956385205776</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="Y11" t="n">
-        <v>2797.954272994898</v>
+        <v>1709.09074009817</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>596.176270190801</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5223,19 +5223,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>401.1300252290284</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U13" t="n">
-        <v>115.6912334709294</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V13" t="n">
-        <v>62.11912770411553</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
         <v>62.11912770411553</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2535.796644191037</v>
+        <v>1458.718563377283</v>
       </c>
       <c r="C14" t="n">
-        <v>2142.621142693967</v>
+        <v>1458.718563377283</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5308,22 +5308,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V14" t="n">
-        <v>3105.956385205776</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="W14" t="n">
-        <v>3105.956385205776</v>
+        <v>2255.704018168079</v>
       </c>
       <c r="X14" t="n">
-        <v>3105.956385205776</v>
+        <v>2255.704018168079</v>
       </c>
       <c r="Y14" t="n">
-        <v>2936.291389902433</v>
+        <v>1859.21330908868</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7913173233209</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5460,19 +5460,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>401.1300252290284</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U16" t="n">
-        <v>115.6912334709294</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V16" t="n">
-        <v>62.11912770411553</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W16" t="n">
         <v>62.11912770411553</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>840.7357579845172</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C17" t="n">
-        <v>447.5602564874478</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D17" t="n">
-        <v>62.11912770411553</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="E17" t="n">
-        <v>62.11912770411553</v>
+        <v>1085.766385253034</v>
       </c>
       <c r="F17" t="n">
-        <v>62.11912770411553</v>
+        <v>668.8719467830116</v>
       </c>
       <c r="G17" t="n">
-        <v>62.11912770411553</v>
+        <v>255.7091912710147</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5542,25 +5542,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T17" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U17" t="n">
-        <v>2422.196584426364</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V17" t="n">
-        <v>2080.089775129883</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W17" t="n">
-        <v>1709.09074009817</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X17" t="n">
-        <v>1637.721212775313</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y17" t="n">
-        <v>1241.230503695914</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>337.9667638673033</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>337.9667638673033</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>337.9667638673033</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>182.4079517265058</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>182.4079517265058</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>182.4079517265058</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>182.4079517265058</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
         <v>62.11912770411553</v>
@@ -5697,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>603.946109046479</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U19" t="n">
-        <v>603.946109046479</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V19" t="n">
-        <v>337.9667638673033</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W19" t="n">
-        <v>337.9667638673033</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>337.9667638673033</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>337.9667638673033</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1292.766560750923</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C20" t="n">
-        <v>899.5910592538539</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D20" t="n">
-        <v>899.5910592538539</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>899.5910592538539</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>482.6966207838317</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
-        <v>482.6966207838317</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>158.6135703503223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5776,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U20" t="n">
-        <v>2850.203655640375</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V20" t="n">
-        <v>2850.203655640375</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W20" t="n">
-        <v>2479.204620608662</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X20" t="n">
-        <v>2089.752015541719</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y20" t="n">
-        <v>1693.26130646232</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1345.668748541356</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2697.636305331118</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>2527.431187397107</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>2371.798074299622</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>2216.239262158824</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U22" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V22" t="n">
-        <v>3105.956385205776</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W22" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>2882.84432402242</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>727.1591490138585</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C23" t="n">
-        <v>333.9836475167891</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D23" t="n">
-        <v>62.11912770411553</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
         <v>62.11912770411553</v>
@@ -6013,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T23" t="n">
-        <v>2882.455782765193</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U23" t="n">
-        <v>2626.703053199792</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V23" t="n">
-        <v>2284.59624390331</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W23" t="n">
-        <v>1913.597208871598</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X23" t="n">
-        <v>1524.144603804654</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y23" t="n">
-        <v>1127.653894725255</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
         <v>62.11912770411553</v>
@@ -6174,25 +6174,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>760.7500664282172</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>760.7500664282172</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
-        <v>760.7500664282172</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>840.7357579845172</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C26" t="n">
-        <v>447.5602564874478</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D26" t="n">
-        <v>62.11912770411551</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E26" t="n">
-        <v>62.11912770411551</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411551</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6250,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2398.172852873969</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>2027.173817842256</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X26" t="n">
-        <v>1637.721212775313</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y26" t="n">
-        <v>1241.230503695914</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2463.555983114101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>2293.35086518009</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>3105.956385205776</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>2871.876062988759</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>2648.764001805403</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>522.652680240431</v>
+        <v>2021.701838714967</v>
       </c>
       <c r="C29" t="n">
-        <v>475.2818832161124</v>
+        <v>1628.526337217898</v>
       </c>
       <c r="D29" t="n">
-        <v>475.2818832161124</v>
+        <v>1243.085208434565</v>
       </c>
       <c r="E29" t="n">
-        <v>475.2818832161124</v>
+        <v>840.5016835511099</v>
       </c>
       <c r="F29" t="n">
-        <v>475.2818832161124</v>
+        <v>423.6072450810876</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6499,16 +6499,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2080.089775129883</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W29" t="n">
-        <v>1709.09074009817</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X29" t="n">
-        <v>1319.638135031227</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="Y29" t="n">
-        <v>923.1474259518279</v>
+        <v>2422.196584426364</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
-        <v>494.9732559860694</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M30" t="n">
-        <v>1122.744905612751</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N30" t="n">
-        <v>1778.52287682331</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>1778.52287682331</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2184.144245539707</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2882.84432402242</v>
+        <v>227.7874310177093</v>
       </c>
       <c r="C31" t="n">
-        <v>2712.639206088409</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2557.006092990924</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2530.089351351805</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2372.763416564778</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="W31" t="n">
-        <v>3105.956385205776</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="X31" t="n">
-        <v>3105.956385205776</v>
+        <v>227.7874310177093</v>
       </c>
       <c r="Y31" t="n">
-        <v>2882.84432402242</v>
+        <v>227.7874310177093</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2535.796644191037</v>
+        <v>1544.597836494148</v>
       </c>
       <c r="C32" t="n">
-        <v>2142.621142693967</v>
+        <v>1151.422334997079</v>
       </c>
       <c r="D32" t="n">
-        <v>1757.180013910635</v>
+        <v>1151.422334997079</v>
       </c>
       <c r="E32" t="n">
-        <v>1354.596489027179</v>
+        <v>748.8388101136234</v>
       </c>
       <c r="F32" t="n">
-        <v>937.702050557157</v>
+        <v>331.9443716436011</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6727,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>2882.455782765193</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U32" t="n">
-        <v>2882.455782765193</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.455782765193</v>
+        <v>2341.583291284944</v>
       </c>
       <c r="W32" t="n">
-        <v>2882.455782765193</v>
+        <v>2341.583291284944</v>
       </c>
       <c r="X32" t="n">
-        <v>2882.455782765193</v>
+        <v>2341.583291284944</v>
       </c>
       <c r="Y32" t="n">
-        <v>2882.455782765193</v>
+        <v>1945.092582205545</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M33" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N33" t="n">
         <v>1223.947919817482</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>2779.239312020903</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T34" t="n">
-        <v>2543.520260189137</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U34" t="n">
-        <v>2258.081468431038</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V34" t="n">
-        <v>2204.509362664224</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="W34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1257.630196454539</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C35" t="n">
-        <v>864.45469495747</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D35" t="n">
-        <v>479.0135661741377</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E35" t="n">
-        <v>479.0135661741377</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F35" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
         <v>62.11912770411553</v>
@@ -6961,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U35" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V35" t="n">
-        <v>2425.614686277048</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W35" t="n">
-        <v>2054.615651245335</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X35" t="n">
-        <v>2054.615651245335</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y35" t="n">
-        <v>1658.124942165936</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>346.0196676966397</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L36" t="n">
-        <v>346.0196676966397</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M36" t="n">
-        <v>973.7913173233209</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7125,22 +7125,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U37" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V37" t="n">
-        <v>678.1273584875689</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W37" t="n">
-        <v>394.7969564187466</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X37" t="n">
-        <v>394.7969564187466</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6848952353899</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7256,13 +7256,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M39" t="n">
-        <v>1009.629923393023</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7359,22 +7359,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T40" t="n">
-        <v>834.5409361354704</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U40" t="n">
-        <v>834.5409361354704</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V40" t="n">
-        <v>568.5615909562946</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W40" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X40" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y40" t="n">
         <v>62.11912770411553</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1919.518325348037</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C41" t="n">
-        <v>1526.342823850968</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D41" t="n">
-        <v>1140.901695067635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>738.3181701841797</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
-        <v>321.4237317141575</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
         <v>62.11912770411553</v>
@@ -7453,10 +7453,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="X41" t="n">
-        <v>2716.503780138833</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y41" t="n">
-        <v>2320.013071059434</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2009.716291882317</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7596,10 +7596,10 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T43" t="n">
-        <v>896.8676667102127</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U43" t="n">
         <v>611.4288749521137</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1206.412481019843</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C44" t="n">
-        <v>813.2369795227737</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D44" t="n">
-        <v>427.7958507394414</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E44" t="n">
-        <v>62.11912770411553</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F44" t="n">
-        <v>62.11912770411553</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7672,28 +7672,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V44" t="n">
-        <v>2763.849575909295</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W44" t="n">
-        <v>2392.850540877582</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X44" t="n">
-        <v>2003.397935810639</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y44" t="n">
-        <v>1606.90722673124</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>658.8001958221562</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7836,7 +7836,7 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>896.8676667102127</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U46" t="n">
         <v>611.4288749521137</v>
@@ -8057,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>684.2495388215582</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8303,16 +8303,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>550.6002160777358</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8534,13 +8534,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M9" t="n">
-        <v>237.5738335035115</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,22 +8768,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>306.543171528089</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>377.2173282296772</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9014,16 +9014,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>201.8486954419035</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>373.1055958271594</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9263,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O21" t="n">
-        <v>491.4748860273814</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M24" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>289.2815038024237</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10606,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>262.1075997502998</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10685,7 +10685,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,16 +10904,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N39" t="n">
-        <v>301.8549375253374</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11141,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>224.834151932995</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11381,10 +11381,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>237.5738335035115</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>198.9450483854989</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22612,7 +22612,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>152.3195699869349</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22707,7 +22707,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -22719,7 +22719,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>158.5820390938366</v>
       </c>
     </row>
     <row r="5">
@@ -22789,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>376.4156225937866</v>
+        <v>121.0509250337095</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,10 +22840,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,13 +22995,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23010,7 +23010,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>107.7142051367365</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>34.92956117773218</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>368.5828007017149</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23181,28 +23181,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>260.8208798779854</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>292.2413528313791</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.60371089983539</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>141.552118150436</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>266.1418027364039</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>314.9022469666453</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23910,10 +23910,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75203279928563</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>41.42424751871508</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24025,16 +24025,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>189.9325545642683</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>144.1400749395023</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>112.4408428809522</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,22 +24372,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>100.4445175928075</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>61.70704469689798</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>66.12369447580254</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24654,22 +24654,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>342.3466574280233</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>188.1116374921343</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4.491446474212808</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>127.3556497966624</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -24891,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>53.29725106586824</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>141.9041364567861</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>210.2831670182379</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>104.7987338652398</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>88.87445976594648</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.88582864842662</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25365,13 +25365,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>105.6268993443526</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>134.7564242791756</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>152.3195699869353</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>134.7564242791756</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>326.8863003027286</v>
       </c>
       <c r="E44" t="n">
-        <v>36.53773382964823</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25924,10 +25924,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>661557.9095155577</v>
+        <v>661557.9095155579</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>661557.9095155577</v>
+        <v>661557.9095155578</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>661557.9095155577</v>
+        <v>661557.9095155578</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661557.9095155579</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661557.9095155578</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661557.9095155578</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661557.9095155578</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>661557.9095155578</v>
+        <v>661557.9095155577</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         <v>229000.8148323084</v>
       </c>
       <c r="D2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="E2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="F2" t="n">
-        <v>229000.8148323083</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="G2" t="n">
+        <v>229000.8148323085</v>
+      </c>
+      <c r="H2" t="n">
         <v>229000.8148323084</v>
-      </c>
-      <c r="H2" t="n">
-        <v>229000.8148323085</v>
       </c>
       <c r="I2" t="n">
         <v>229000.8148323084</v>
@@ -26340,22 +26340,22 @@
         <v>229000.8148323084</v>
       </c>
       <c r="K2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="L2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="M2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="N2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="O2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="P2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323083</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="C4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="D4" t="n">
+        <v>548.8206074562065</v>
+      </c>
+      <c r="E4" t="n">
         <v>548.8206074562066</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>548.8206074562065</v>
-      </c>
-      <c r="F4" t="n">
-        <v>548.8206074562066</v>
       </c>
       <c r="G4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="H4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="I4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="J4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="K4" t="n">
-        <v>548.8206074562067</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="L4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="M4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="N4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="O4" t="n">
         <v>548.8206074562065</v>
       </c>
       <c r="P4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112605.4982501045</v>
+        <v>-113136.5932819696</v>
       </c>
       <c r="C6" t="n">
-        <v>147613.8571697244</v>
+        <v>147082.7621378592</v>
       </c>
       <c r="D6" t="n">
-        <v>147613.8571697244</v>
+        <v>147082.7621378593</v>
       </c>
       <c r="E6" t="n">
-        <v>181241.4571697245</v>
+        <v>180710.3621378593</v>
       </c>
       <c r="F6" t="n">
-        <v>181241.4571697243</v>
+        <v>180710.3621378593</v>
       </c>
       <c r="G6" t="n">
-        <v>181241.4571697244</v>
+        <v>180710.3621378593</v>
       </c>
       <c r="H6" t="n">
-        <v>181241.4571697245</v>
+        <v>180710.3621378593</v>
       </c>
       <c r="I6" t="n">
-        <v>181241.4571697244</v>
+        <v>180710.3621378593</v>
       </c>
       <c r="J6" t="n">
-        <v>-21922.2559429706</v>
+        <v>-22453.35097483577</v>
       </c>
       <c r="K6" t="n">
-        <v>181241.4571697245</v>
+        <v>180710.3621378593</v>
       </c>
       <c r="L6" t="n">
-        <v>181241.4571697244</v>
+        <v>180710.3621378593</v>
       </c>
       <c r="M6" t="n">
-        <v>181241.4571697244</v>
+        <v>180710.3621378593</v>
       </c>
       <c r="N6" t="n">
-        <v>181241.4571697245</v>
+        <v>180710.3621378593</v>
       </c>
       <c r="O6" t="n">
-        <v>181241.4571697245</v>
+        <v>180710.3621378592</v>
       </c>
       <c r="P6" t="n">
-        <v>181241.4571697245</v>
+        <v>180710.3621378591</v>
       </c>
     </row>
   </sheetData>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>598.8774259673916</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2130940284239</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M9" t="n">
-        <v>145.1867114541996</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>216.4828246711707</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>284.5297693407883</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35734,16 +35734,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>109.4615733925916</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35901,7 +35901,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>287.7334829729927</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35983,7 +35983,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7873271384925</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M24" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>198.2933506465097</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>172.5106644169664</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N39" t="n">
-        <v>216.4828246711707</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>137.7507871136803</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>145.1867114541996</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38116,7 +38116,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
